--- a/app/config/tables/breathcounter/forms/breathcounter/breathcounter.xlsx
+++ b/app/config/tables/breathcounter/forms/breathcounter/breathcounter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\breathcounter\forms\breathcounter\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="620" windowWidth="21840" windowHeight="12080"/>
+    <workbookView xWindow="2605" yWindow="615" windowWidth="21836" windowHeight="12083" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -47,9 +52,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>form_id</t>
-  </si>
-  <si>
     <t>form_version</t>
   </si>
   <si>
@@ -75,6 +77,9 @@
   </si>
   <si>
     <t>hideInContents</t>
+  </si>
+  <si>
+    <t>table_id</t>
   </si>
 </sst>
 </file>
@@ -128,6 +133,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -422,20 +430,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="41.83203125" customWidth="1"/>
-    <col min="4" max="4" width="32.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.125" customWidth="1"/>
+    <col min="2" max="2" width="24.875" customWidth="1"/>
+    <col min="3" max="3" width="41.875" customWidth="1"/>
+    <col min="4" max="4" width="32.875" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12">
+    <row r="1" spans="1:5" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,16 +451,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1">
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -484,21 +492,21 @@
       <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1">
+    <row r="1" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1">
+    <row r="2" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -506,8 +514,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1"/>
-    <row r="4" spans="1:2" ht="15" customHeight="1"/>
+    <row r="3" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -522,53 +530,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.5" customHeight="1">
+    <row r="1" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.5" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.5" customHeight="1">
+    <row r="3" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>20130408</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.5" customHeight="1">
+    <row r="4" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17.5" customHeight="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/app/config/tables/breathcounter/forms/breathcounter/breathcounter.xlsx
+++ b/app/config/tables/breathcounter/forms/breathcounter/breathcounter.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2605" yWindow="615" windowWidth="21836" windowHeight="12083" activeTab="2"/>
+    <workbookView xWindow="2605" yWindow="615" windowWidth="21836" windowHeight="12083"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -61,31 +61,31 @@
     <t>setting_name</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>survey</t>
   </si>
   <si>
     <t>prompt_type_name</t>
   </si>
   <si>
-    <t>display.text</t>
-  </si>
-  <si>
-    <t>display.hint</t>
-  </si>
-  <si>
     <t>hideInContents</t>
   </si>
   <si>
     <t>table_id</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -184,7 +184,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -217,9 +217,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,6 +269,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -430,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -451,16 +485,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="54.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -500,7 +534,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -530,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -549,12 +583,12 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -570,7 +604,7 @@
     </row>
     <row r="4" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
